--- a/data/trans_dic/P19C03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P19C03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,51%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,77%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,48%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,33%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,83%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>26,84; 49,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>17,52; 34,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>9,26; 24,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>10,53; 26,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>27,13; 45,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>21,23; 40,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>14,66; 29,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>12,8; 25,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>29,58; 43,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>21,72; 33,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>13,61; 24,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>13,48; 23,42</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,4%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,41%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,73%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>32,5; 42,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>24,51; 32,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>28,84; 38,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>20,21; 28,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>31,19; 40,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>22,97; 30,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>23,12; 31,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>14,95; 20,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>33,13; 39,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>24,78; 30,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>26,98; 33,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>18,15; 23,28</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,18%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,44%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,98%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,36%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,31%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>26,19; 33,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>28,68; 35,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>23,12; 29,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>12,23; 18,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>29,56; 36,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>27,22; 33,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>23,64; 29,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>15,3; 19,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>29,1; 34,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>28,67; 33,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>24,48; 29,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>14,37; 17,95</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,91%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,56%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,61%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,64%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>31,25; 39,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>27,09; 34,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>29,18; 37,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>20,3; 27,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>28,77; 36,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>26,49; 33,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>28,39; 35,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>12,92; 24,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>31,18; 36,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>28,03; 33,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>29,75; 35,43</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>16,74; 24,47</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,38%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,6%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,93%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,5%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>24,58; 31,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>26,16; 32,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>20,45; 26,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>12,98; 18,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>25,34; 31,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>24,94; 31,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>19,24; 25,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>13,6; 17,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>26,12; 30,63</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>26,36; 30,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>20,88; 25,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>13,93; 17,11</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,01%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>30,02; 33,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>28,35; 31,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>25,68; 29,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,06; 20,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>30,17; 33,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>27,38; 30,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>24,67; 27,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>15,6; 18,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>30,61; 33,25</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>28,23; 30,71</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>25,74; 28,12</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>16,81; 19,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>37,51%</t>
+          <t>37,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>35,36%</t>
+          <t>35,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>27,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>25,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>36,33%</t>
+          <t>36,39%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>27,44%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>27,88%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>20,6%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,84; 49,03</t>
+          <t>32,94; 41,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,52; 34,18</t>
+          <t>24,67; 31,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,26; 24,46</t>
+          <t>26,01; 34,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,53; 26,6</t>
+          <t>19,62; 28,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,13; 45,98</t>
+          <t>32,05; 39,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,23; 40,97</t>
+          <t>23,73; 30,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,66; 29,91</t>
+          <t>22,33; 29,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,8; 25,0</t>
+          <t>15,5; 20,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,58; 43,8</t>
+          <t>33,72; 39,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21,72; 33,91</t>
+          <t>24,91; 30,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,61; 24,58</t>
+          <t>24,97; 30,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,48; 23,42</t>
+          <t>18,22; 22,98</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>36,99%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,11%</t>
+          <t>26,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,87%</t>
+          <t>32,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,61%</t>
+          <t>30,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>36,4%</t>
+          <t>31,44%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>30,98%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>26,36%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>15,04%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,5; 42,23</t>
+          <t>26,19; 33,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,51; 32,71</t>
+          <t>28,68; 35,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,84; 38,35</t>
+          <t>23,12; 29,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,21; 28,66</t>
+          <t>6,21; 17,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,19; 40,24</t>
+          <t>29,56; 36,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,97; 30,73</t>
+          <t>27,22; 33,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,12; 31,49</t>
+          <t>23,64; 29,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,95; 20,62</t>
+          <t>15,59; 19,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,13; 39,67</t>
+          <t>29,1; 34,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,78; 30,09</t>
+          <t>28,67; 33,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26,98; 33,05</t>
+          <t>24,48; 29,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,15; 23,28</t>
+          <t>10,08; 17,6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>29,96%</t>
+          <t>35,47%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>30,74%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>33,32%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>24,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>32,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>30,14%</t>
+          <t>30,38%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>31,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
+          <t>33,91%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>30,56%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>26,36%</t>
+          <t>32,61%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>21,9%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,19; 33,41</t>
+          <t>31,25; 39,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28,68; 35,3</t>
+          <t>27,09; 34,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,12; 29,42</t>
+          <t>29,18; 37,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,23; 18,15</t>
+          <t>20,51; 28,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,56; 36,4</t>
+          <t>28,77; 36,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,22; 33,23</t>
+          <t>26,49; 33,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,64; 29,71</t>
+          <t>28,39; 35,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,3; 19,52</t>
+          <t>10,2; 28,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,1; 34,23</t>
+          <t>31,18; 36,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,67; 33,14</t>
+          <t>28,03; 33,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>24,48; 29,0</t>
+          <t>29,75; 35,43</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,37; 17,95</t>
+          <t>13,85; 26,82</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,47%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,32%</t>
+          <t>23,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,47%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,38%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,95%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>33,91%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>28,6%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>22,93%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
+          <t>15,19%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,25; 39,97</t>
+          <t>24,58; 31,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,09; 34,42</t>
+          <t>26,16; 32,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,18; 37,81</t>
+          <t>20,45; 26,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,3; 27,91</t>
+          <t>13,13; 18,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,77; 36,26</t>
+          <t>25,34; 31,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,49; 33,87</t>
+          <t>24,94; 31,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,39; 35,88</t>
+          <t>19,24; 25,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,92; 24,23</t>
+          <t>11,66; 17,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,18; 36,87</t>
+          <t>26,12; 30,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,03; 33,35</t>
+          <t>26,36; 30,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>29,75; 35,43</t>
+          <t>20,88; 25,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,74; 24,47</t>
+          <t>13,15; 16,98</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>29,17%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>27,57%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>28,61%</t>
+          <t>32,06%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>26,29%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>17,69%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,58; 31,15</t>
+          <t>30,02; 33,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26,16; 32,57</t>
+          <t>28,35; 31,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,45; 26,36</t>
+          <t>25,68; 29,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,98; 18,32</t>
+          <t>13,38; 20,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,34; 31,83</t>
+          <t>30,17; 33,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,94; 31,23</t>
+          <t>27,38; 30,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,24; 25,4</t>
+          <t>24,67; 27,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,6; 17,67</t>
+          <t>14,68; 19,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26,12; 30,63</t>
+          <t>30,61; 33,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,36; 30,64</t>
+          <t>28,23; 30,71</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20,88; 25,0</t>
+          <t>25,74; 28,12</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,93; 17,11</t>
+          <t>15,35; 19,44</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>31,99%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>30,03%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>27,57%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>18,73%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>32,06%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>28,96%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>26,29%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>17,38%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>32,03%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>29,48%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>26,91%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>18,01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>30,02; 33,98</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>28,35; 31,81</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>25,68; 29,35</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>17,06; 20,54</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>30,17; 33,89</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>27,38; 30,69</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>24,67; 27,88</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>15,6; 18,72</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>30,61; 33,25</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>28,23; 30,71</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>25,74; 28,12</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>16,81; 19,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P19C03-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>32,94; 41,71</t>
+          <t>32,52; 40,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,67; 31,79</t>
+          <t>24,01; 31,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,01; 34,26</t>
+          <t>25,64; 33,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,62; 28,42</t>
+          <t>19,92; 28,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,05; 39,68</t>
+          <t>31,47; 39,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,73; 30,92</t>
+          <t>23,71; 30,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,33; 29,97</t>
+          <t>22,34; 29,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,5; 20,48</t>
+          <t>15,34; 20,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,72; 39,39</t>
+          <t>33,56; 39,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,91; 30,25</t>
+          <t>25,04; 30,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,97; 30,71</t>
+          <t>25,25; 30,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,22; 22,98</t>
+          <t>18,37; 23,23</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,19; 33,41</t>
+          <t>26,57; 33,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,68; 35,3</t>
+          <t>28,67; 35,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,12; 29,42</t>
+          <t>23,27; 29,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,21; 17,45</t>
+          <t>6,31; 17,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,56; 36,4</t>
+          <t>29,75; 36,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,22; 33,23</t>
+          <t>27,27; 33,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,64; 29,71</t>
+          <t>23,59; 29,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,59; 19,78</t>
+          <t>15,55; 19,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,1; 34,23</t>
+          <t>28,85; 34,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,67; 33,14</t>
+          <t>28,86; 33,4</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>24,48; 29,0</t>
+          <t>24,36; 28,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,08; 17,6</t>
+          <t>9,69; 17,41</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>31,25; 39,97</t>
+          <t>31,77; 39,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,09; 34,42</t>
+          <t>26,92; 34,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,18; 37,81</t>
+          <t>29,26; 37,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,51; 28,42</t>
+          <t>20,7; 28,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,77; 36,26</t>
+          <t>28,64; 36,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,49; 33,87</t>
+          <t>26,83; 34,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,39; 35,88</t>
+          <t>28,08; 35,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,2; 28,61</t>
+          <t>9,77; 29,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>31,18; 36,87</t>
+          <t>31,11; 36,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,03; 33,35</t>
+          <t>27,97; 33,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>29,75; 35,43</t>
+          <t>29,76; 35,42</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,85; 26,82</t>
+          <t>13,74; 26,95</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,58; 31,15</t>
+          <t>24,84; 31,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,16; 32,57</t>
+          <t>26,0; 32,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,45; 26,36</t>
+          <t>20,68; 26,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 18,59</t>
+          <t>13,25; 18,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,34; 31,83</t>
+          <t>25,58; 31,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,94; 31,23</t>
+          <t>25,42; 31,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,24; 25,4</t>
+          <t>19,65; 25,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,66; 17,08</t>
+          <t>11,87; 17,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,12; 30,63</t>
+          <t>26,13; 30,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,36; 30,64</t>
+          <t>26,64; 30,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,88; 25,0</t>
+          <t>20,94; 25,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,15; 16,98</t>
+          <t>13,24; 17,03</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>30,02; 33,98</t>
+          <t>30,08; 34,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28,35; 31,81</t>
+          <t>28,16; 31,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,68; 29,35</t>
+          <t>25,65; 29,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,38; 20,06</t>
+          <t>13,9; 20,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,17; 33,89</t>
+          <t>30,12; 33,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,38; 30,69</t>
+          <t>27,05; 30,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,67; 27,88</t>
+          <t>24,66; 27,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,68; 19,98</t>
+          <t>14,48; 19,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,61; 33,25</t>
+          <t>30,72; 33,28</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,23; 30,71</t>
+          <t>28,31; 30,8</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25,74; 28,12</t>
+          <t>25,65; 28,05</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,35; 19,44</t>
+          <t>15,26; 19,35</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por un empaste</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>177168</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>168793</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>156827</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>143481</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>192519</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>171949</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>141295</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>116483</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>369686</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>340741</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>298122</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>259964</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>155386; 195856</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>145470; 190447</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>134633; 177499</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>121799; 173874</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>169360; 212000</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>150778; 195633</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>121590; 161339</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>99837; 131982</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>340918; 402085</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>310934; 375188</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>270008; 328279</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>231844; 293221</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>216340</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>275771</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>213721</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>152351</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>263570</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>270686</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>229863</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>164946</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>479910</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>546458</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>443584</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>317297</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>191899; 241382</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>248310; 304475</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>189983; 242267</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>73578; 204474</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>239228; 293946</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>244849; 300327</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>204362; 255168</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>146491; 186908</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>440346; 521219</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>509074; 589259</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>409843; 479570</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>204262; 367143</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>192948</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>195246</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>183383</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>166545</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>189795</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>205821</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>185198</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>185598</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>382742</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>401067</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>368581</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>352142</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>172826; 216864</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>170945; 220060</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>161037; 207041</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>142068; 195665</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>167438; 211377</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>181757; 233449</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>162767; 207218</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>90116; 267716</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>351169; 415799</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>367136; 435982</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>336366; 400239</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>221009; 433462</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>198484</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>234757</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>180672</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>139312</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>232921</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>262261</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>197551</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>157140</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>431405</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>497018</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>378223</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>296452</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>176255; 223479</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>209240; 259805</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>159752; 205085</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>117747; 166453</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>208256; 258392</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>237261; 291906</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>172308; 222718</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>126143; 181574</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>398130; 467875</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>463007; 531962</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>345335; 415337</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>258435; 332404</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>828</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>855</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>941</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1624</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1683</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1421</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1510</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>784940</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>874567</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>734604</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>601689</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>878804</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>910717</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>753907</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>624166</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1663744</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1785284</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1488511</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1225855</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>738000; 835283</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>819942; 925148</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>683521; 780111</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>466080; 677159</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>825485; 928483</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>850603; 961140</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>707216; 799085</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>518144; 714249</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1595910; 1728616</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1714774; 1865452</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1419039; 1551376</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1057834; 1341274</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>